--- a/Dispature/Data/Config.xlsx
+++ b/Dispature/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holep\Documents\UiPath\Generate Yearly Report\Dispature\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAC726D-BF55-428F-8CF9-C8DB5D666428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C00ED-213D-481A-BAF5-2DE4F83D4C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
